--- a/17 - Análise dos Eventos para cada Cenário.xlsx
+++ b/17 - Análise dos Eventos para cada Cenário.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24d7ff5522ff08d3/Área de Trabalho/Faculdade/3º Semestre/Engenharia de Requistos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24d7ff5522ff08d3/Área de Trabalho/Faculdade/3º Semestre/Engenharia de Requistos/AC1-new/ACs---Engenharia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{3BD4D077-5CC4-4C8F-BB82-2CFBD674648F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{143911AD-6D60-4F4B-AAB5-E51022AEB935}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{3BD4D077-5CC4-4C8F-BB82-2CFBD674648F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9072647-C5DF-4A5A-BAE8-520EB1923A93}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2D3AFAD3-9663-4586-9905-25CEE9761AA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D3AFAD3-9663-4586-9905-25CEE9761AA4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Capacidades</t>
   </si>
   <si>
-    <t>Agendar Horário</t>
-  </si>
-  <si>
     <t>FB</t>
   </si>
   <si>
@@ -49,18 +45,6 @@
     <t>Nº</t>
   </si>
   <si>
-    <t>Cliente solicita reserva</t>
-  </si>
-  <si>
-    <t>Atendente confirma se o horário e data estão vagos</t>
-  </si>
-  <si>
-    <t>Atendente finaliza reserva</t>
-  </si>
-  <si>
-    <t>Atendente gera comprovante</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Evento</t>
   </si>
   <si>
@@ -70,12 +54,6 @@
     <t>Não Previsível</t>
   </si>
   <si>
-    <t>Atendende retorna que o horário ou a data não tem vagas</t>
-  </si>
-  <si>
-    <t>Cliente cancela a reserva</t>
-  </si>
-  <si>
     <t>Relativo</t>
   </si>
   <si>
@@ -112,53 +90,56 @@
     <t>Cliente avisa a sua chegada para realização dos serviços</t>
   </si>
   <si>
-    <t>Atendimento</t>
+    <t>x(4)</t>
+  </si>
+  <si>
+    <t>x(5)</t>
+  </si>
+  <si>
+    <t>Cliente solicita ajustes</t>
+  </si>
+  <si>
+    <t>x(6)</t>
+  </si>
+  <si>
+    <t>x(7)</t>
+  </si>
+  <si>
+    <t>Cliente solicita valor a pagar</t>
+  </si>
+  <si>
+    <t>Cliente realiza pagamento</t>
+  </si>
+  <si>
+    <t>x(8)</t>
+  </si>
+  <si>
+    <t>Barbeiro chama cliente para o atendimento</t>
+  </si>
+  <si>
+    <t>Realizar atendimento</t>
+  </si>
+  <si>
+    <t>Finalizar atendimento</t>
+  </si>
+  <si>
+    <t>Agendar horário</t>
+  </si>
+  <si>
+    <t>Cliente solicita suas preferências de corte</t>
+  </si>
+  <si>
+    <t>Barbeiro avisa o término do procedimento para a recepção</t>
   </si>
   <si>
     <t>Recepção avisa que tem cliente aguardando</t>
-  </si>
-  <si>
-    <t>x(4)</t>
-  </si>
-  <si>
-    <t>x(5)</t>
-  </si>
-  <si>
-    <t>Cliente solicita ajustes</t>
-  </si>
-  <si>
-    <t>x(6)</t>
-  </si>
-  <si>
-    <t>x(7)</t>
-  </si>
-  <si>
-    <t>Finalizar Atendimento</t>
-  </si>
-  <si>
-    <t>Cliente solicita valor a pagar</t>
-  </si>
-  <si>
-    <t>Cliente realiza pagamento</t>
-  </si>
-  <si>
-    <t>Barbeiro avisa o término do precedimento para a Recepção</t>
-  </si>
-  <si>
-    <t>x(8)</t>
-  </si>
-  <si>
-    <t>Barbeiro chama cliente para o atendimento</t>
-  </si>
-  <si>
-    <t>Barbeiro realiza serviço</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,14 +158,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -392,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
@@ -402,19 +375,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,54 +396,69 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,80 +468,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -875,276 +808,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DF886A-CBB4-472F-A8AC-FFC22EFBEB79}">
-  <dimension ref="A2:O12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="J3" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="22"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="22"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="5">
-        <v>2</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="5">
-        <v>3</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="5">
-        <v>4</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="9"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="5">
-        <v>6</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A6:B11"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="L3:N4"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E9:I9"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C562685B-77BA-4E59-92CE-7E954BE03C48}">
   <dimension ref="A3:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:I11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,307 +828,306 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
-      <c r="J3" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="22"/>
+      <c r="J3" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="34"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="22"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="11">
+        <v>3</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="12">
+        <v>4</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
     </row>
-    <row r="6" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+    <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="16">
+        <v>5</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="16">
+        <v>6</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="20" t="s">
+      <c r="D12" s="15">
+        <v>7</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="15">
+        <v>8</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
     </row>
-    <row r="7" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="15">
-        <v>2</v>
-      </c>
-      <c r="E7" s="50" t="s">
+    <row r="14" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="16">
+        <v>9</v>
+      </c>
+      <c r="E14" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="14">
-        <v>3</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="14">
-        <v>4</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="15">
-        <v>5</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="9"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="14">
-        <v>6</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="14">
-        <v>7</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="14">
-        <v>8</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="15">
-        <v>9</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="16" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="A7:B11"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="J3:K4"/>
     <mergeCell ref="L3:N4"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A12:B14"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A8:B11"/>
+    <mergeCell ref="C12:C14"/>
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="E14:I14"/>
-    <mergeCell ref="C12:C14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/17 - Análise dos Eventos para cada Cenário.xlsx
+++ b/17 - Análise dos Eventos para cada Cenário.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24d7ff5522ff08d3/Área de Trabalho/Faculdade/3º Semestre/Engenharia de Requistos/AC1-new/ACs---Engenharia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{3BD4D077-5CC4-4C8F-BB82-2CFBD674648F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9072647-C5DF-4A5A-BAE8-520EB1923A93}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E0D0B5C9-5FBC-4BB1-A588-7A53600B1F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F240AC40-4608-49EA-9EDE-4A534A63F992}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D3AFAD3-9663-4586-9905-25CEE9761AA4}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2D3AFAD3-9663-4586-9905-25CEE9761AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
   <si>
     <t>Capacidades</t>
   </si>
@@ -133,6 +134,57 @@
   </si>
   <si>
     <t>Recepção avisa que tem cliente aguardando</t>
+  </si>
+  <si>
+    <t>Realizar Agendamento</t>
+  </si>
+  <si>
+    <t>Recepcionar cliente</t>
+  </si>
+  <si>
+    <t>Cliente avisa a sua chegada</t>
+  </si>
+  <si>
+    <t>Corte recebe aviso de cliente aguardando</t>
+  </si>
+  <si>
+    <t>Corte convida cliente para atendimento</t>
+  </si>
+  <si>
+    <t>Cliente passa o feedback sobre o serviço</t>
+  </si>
+  <si>
+    <t>Corte avisa o término do serviço para a recepção</t>
+  </si>
+  <si>
+    <t>Cliente insere cartão na máquina e coloca a senha</t>
+  </si>
+  <si>
+    <t>Provedor de cartão informa a resposta da transação</t>
+  </si>
+  <si>
+    <t>Recepção avisa ao Corte que há cliente esperando</t>
+  </si>
+  <si>
+    <t>x(9)</t>
+  </si>
+  <si>
+    <t>x(10)</t>
+  </si>
+  <si>
+    <t>Cliente realiza pagamento com dinheiro</t>
+  </si>
+  <si>
+    <t>x(12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Cliente informa suas preferências</t>
+  </si>
+  <si>
+    <t>Realizar serviço</t>
   </si>
 </sst>
 </file>
@@ -164,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,8 +253,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -361,11 +419,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
@@ -411,6 +487,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -429,71 +586,77 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C562685B-77BA-4E59-92CE-7E954BE03C48}">
   <dimension ref="A3:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:I13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,43 +991,43 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38" t="s">
+      <c r="K3" s="43"/>
+      <c r="L3" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="34"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="34"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="4" t="s">
         <v>5</v>
       </c>
@@ -885,23 +1048,23 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="5"/>
       <c r="K6" s="14" t="s">
         <v>13</v>
@@ -912,23 +1075,23 @@
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="11">
         <v>2</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="9" t="s">
         <v>14</v>
       </c>
@@ -939,19 +1102,19 @@
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="26"/>
       <c r="D8" s="11">
         <v>3</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="9"/>
       <c r="K8" s="5"/>
       <c r="L8" s="10" t="s">
@@ -962,19 +1125,19 @@
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="26"/>
       <c r="D9" s="12">
         <v>4</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="14"/>
       <c r="K9" s="5"/>
       <c r="L9" s="10" t="s">
@@ -985,19 +1148,19 @@
       <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="26"/>
       <c r="D10" s="16">
         <v>5</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="14" t="s">
         <v>19</v>
       </c>
@@ -1008,21 +1171,21 @@
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="16">
         <v>6</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="14" t="s">
         <v>20</v>
       </c>
@@ -1033,23 +1196,23 @@
       <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="15">
         <v>7</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="9"/>
       <c r="K12" s="5"/>
       <c r="L12" s="10" t="s">
@@ -1060,19 +1223,19 @@
       <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="26"/>
       <c r="D13" s="15">
         <v>8</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="9" t="s">
         <v>23</v>
       </c>
@@ -1083,19 +1246,19 @@
       <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="16">
         <v>9</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="14" t="s">
         <v>26</v>
       </c>
@@ -1109,6 +1272,18 @@
     <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="L3:N4"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="A7:B11"/>
     <mergeCell ref="E7:I7"/>
@@ -1116,18 +1291,438 @@
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="E11:I11"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="L3:N4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="E12:I12"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A00399-F273-4627-B924-E7732C4F4594}">
+  <dimension ref="A3:Q19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J3" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="42"/>
+      <c r="L3" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="70"/>
+      <c r="C5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="23">
+        <v>2</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>3</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="22">
+        <v>4</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="22">
+        <v>5</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22">
+        <v>6</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="22">
+        <v>7</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="22">
+        <v>8</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="63"/>
+      <c r="C13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="22">
+        <v>9</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="64"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22">
+        <v>10</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="64"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="22">
+        <v>11</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="64"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="22">
+        <v>12</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8"/>
+      <c r="Q16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="74"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="24">
+        <v>13</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A13:B17"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E8:I8"/>
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="A8:B12"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="A6:B7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/17 - Análise dos Eventos para cada Cenário.xlsx
+++ b/17 - Análise dos Eventos para cada Cenário.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24d7ff5522ff08d3/Área de Trabalho/Faculdade/3º Semestre/Engenharia de Requistos/AC1-new/ACs---Engenharia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24d7ff5522ff08d3/Área de Trabalho/Vini/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E0D0B5C9-5FBC-4BB1-A588-7A53600B1F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F240AC40-4608-49EA-9EDE-4A534A63F992}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{8C5AE151-5397-4E20-8040-3592BB4CC46D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{57856E06-A842-4154-B1F8-37C5686B1FBA}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2D3AFAD3-9663-4586-9905-25CEE9761AA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2D3AFAD3-9663-4586-9905-25CEE9761AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
@@ -21,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
   <si>
     <t>Capacidades</t>
   </si>
@@ -163,21 +157,12 @@
     <t>Provedor de cartão informa a resposta da transação</t>
   </si>
   <si>
-    <t>Recepção avisa ao Corte que há cliente esperando</t>
-  </si>
-  <si>
     <t>x(9)</t>
   </si>
   <si>
-    <t>x(10)</t>
-  </si>
-  <si>
     <t>Cliente realiza pagamento com dinheiro</t>
   </si>
   <si>
-    <t>x(12)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -185,6 +170,21 @@
   </si>
   <si>
     <t>Realizar serviço</t>
+  </si>
+  <si>
+    <t>x(11)</t>
+  </si>
+  <si>
+    <t>Cliente cancela horario agendado</t>
+  </si>
+  <si>
+    <t>fora</t>
+  </si>
+  <si>
+    <t>dentro</t>
+  </si>
+  <si>
+    <t>Cancelar agendamento</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,8 +259,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8978D2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -428,28 +440,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -496,13 +492,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -547,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -559,7 +561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -589,43 +591,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -637,10 +612,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -652,11 +633,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,6 +645,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8978D2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -974,299 +960,302 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C562685B-77BA-4E59-92CE-7E954BE03C48}">
   <dimension ref="A3:O28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:O14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="9.140625" style="19"/>
+    <col min="9" max="9" width="22.140625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="19"/>
+    <col min="14" max="14" width="11.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="J3" s="43" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="J3" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43" t="s">
+      <c r="K3" s="44"/>
+      <c r="L3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="39"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="40"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="39"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="4" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="13">
         <v>1</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="14" t="s">
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="8"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="9" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="8"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="11">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="8">
         <v>3</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="10" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="12">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="9">
         <v>4</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="10" t="s">
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="8"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="16">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="13">
         <v>5</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="14" t="s">
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="8"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="18" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="13">
         <v>6</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="14" t="s">
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="8"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5"/>
     </row>
     <row r="12" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <v>7</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="10" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="8"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="15">
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="12">
         <v>8</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="9" t="s">
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="8"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="16">
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="13">
         <v>9</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="14" t="s">
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="8"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5"/>
     </row>
     <row r="16" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1299,430 +1288,419 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A00399-F273-4627-B924-E7732C4F4594}">
-  <dimension ref="A3:Q19"/>
+  <dimension ref="C2:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:I14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="19"/>
+    <col min="4" max="4" width="18.5703125" style="19" customWidth="1"/>
+    <col min="5" max="10" width="9.140625" style="19"/>
+    <col min="11" max="11" width="15.5703125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="19"/>
+    <col min="16" max="16" width="11.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J3" s="40" t="s">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L3" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="40" t="s">
+      <c r="M3" s="62"/>
+      <c r="N3" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="O3" s="63"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="23"/>
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="G4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="35"/>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="35"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="M4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="N4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="O4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="P4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="Q4" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+    <row r="5" spans="3:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="64"/>
+      <c r="E5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="21">
+      <c r="F5" s="18">
         <v>1</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="G5" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="14" t="s">
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="N5" s="25"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="3:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="56"/>
+      <c r="E6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23">
+      <c r="F6" s="18">
         <v>2</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="G6" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="9" t="s">
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="18" t="s">
+      <c r="M6" s="11"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="69"/>
+      <c r="E7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="19">
+      <c r="F7" s="18">
         <v>3</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="G7" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="24"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18">
+        <v>4</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="3:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18">
+        <v>5</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="3:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18">
+        <v>6</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="3:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18">
+        <v>7</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="57"/>
+      <c r="E12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18">
+        <v>8</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18">
+        <v>9</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="3:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18">
+        <v>10</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="22">
-        <v>4</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="22">
-        <v>5</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="22">
-        <v>6</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="22">
-        <v>7</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="18" t="s">
+      <c r="M14" s="24"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="3:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="22">
-        <v>8</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="22">
-        <v>9</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="22">
-        <v>10</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="22">
+      <c r="F15" s="18">
         <v>11</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="9" t="s">
+      <c r="G15" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="24"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5"/>
+      <c r="S15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="18" t="s">
+    </row>
+    <row r="16" spans="3:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="22">
+      <c r="F16" s="13">
         <v>12</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="8"/>
-      <c r="Q16" t="s">
+      <c r="G16" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="24">
-        <v>13</v>
-      </c>
-      <c r="E17" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A13:B17"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="A8:B12"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C12:D16"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="C8:D11"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/17 - Análise dos Eventos para cada Cenário.xlsx
+++ b/17 - Análise dos Eventos para cada Cenário.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinyd\OneDrive\Área de Trabalho\Faculdade\3º Semestre\Engenharia de Requistos\AC1-new\ACs---Engenharia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648FB66F-025C-49E4-84B1-BEAE8613A0E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C237559-87E5-4FB6-8959-75AFE8D0D47B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Externo</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Recepção avisa ao Corte que há cliente esperando</t>
   </si>
   <si>
-    <t>x(2)</t>
-  </si>
-  <si>
     <t>Corte convida cliente para atendimento</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>x(11)</t>
+  </si>
+  <si>
+    <t>x(3)</t>
   </si>
 </sst>
 </file>
@@ -251,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -402,6 +402,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -438,31 +453,14 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -476,13 +474,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,7 +591,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="0" cy="0"/>
@@ -809,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -896,15 +911,15 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="26" t="s">
+      <c r="M3" s="18"/>
+      <c r="N3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="18"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -919,21 +934,21 @@
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="5" t="s">
         <v>5</v>
       </c>
@@ -965,23 +980,23 @@
     <row r="5" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="20"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="8"/>
       <c r="M5" s="9" t="s">
         <v>14</v>
@@ -1003,10 +1018,10 @@
     <row r="6" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="16" t="s">
-        <v>15</v>
+      <c r="C6" s="26" t="s">
+        <v>18</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1014,16 +1029,16 @@
         <v>2</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="9"/>
+      <c r="M6" s="8"/>
       <c r="N6" s="10"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -1041,10 +1056,10 @@
     <row r="7" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="18" t="s">
-        <v>18</v>
+      <c r="C7" s="25" t="s">
+        <v>15</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1052,16 +1067,16 @@
         <v>3</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="8"/>
+      <c r="M7" s="9"/>
       <c r="N7" s="10"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -1070,19 +1085,14 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
@@ -1092,12 +1102,12 @@
       <c r="G8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="35" t="s">
-        <v>22</v>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="13"/>
@@ -1117,8 +1127,8 @@
     <row r="9" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6" t="s">
         <v>12</v>
       </c>
@@ -1126,16 +1136,16 @@
         <v>5</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="8"/>
       <c r="M9" s="9"/>
       <c r="N9" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
@@ -1153,8 +1163,8 @@
     <row r="10" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
@@ -1162,14 +1172,14 @@
         <v>6</v>
       </c>
       <c r="G10" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="10"/>
@@ -1189,8 +1199,8 @@
     <row r="11" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="6" t="s">
         <v>12</v>
       </c>
@@ -1198,14 +1208,14 @@
         <v>7</v>
       </c>
       <c r="G11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="14"/>
@@ -1225,10 +1235,10 @@
     <row r="12" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="25" t="s">
-        <v>29</v>
+      <c r="C12" s="32" t="s">
+        <v>28</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1236,14 +1246,14 @@
         <v>8</v>
       </c>
       <c r="G12" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="14"/>
@@ -1263,8 +1273,8 @@
     <row r="13" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="6" t="s">
         <v>12</v>
       </c>
@@ -1272,14 +1282,14 @@
         <v>9</v>
       </c>
       <c r="G13" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="14"/>
@@ -1299,8 +1309,8 @@
     <row r="14" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="6" t="s">
         <v>12</v>
       </c>
@@ -1308,14 +1318,14 @@
         <v>10</v>
       </c>
       <c r="G14" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="14"/>
@@ -1335,23 +1345,23 @@
     <row r="15" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7">
         <v>11</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
       <c r="L15" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="14"/>
@@ -1360,7 +1370,7 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -1373,23 +1383,23 @@
     <row r="16" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="35">
         <v>12</v>
       </c>
       <c r="G16" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="M16" s="8"/>
       <c r="N16" s="14"/>
@@ -28960,27 +28970,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D11"/>
     <mergeCell ref="C12:D16"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
     <mergeCell ref="G14:K14"/>
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G6:K6"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="G13:K13"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:K5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
